--- a/Code/Results/Cases/Case_6_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_24/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012972877435348</v>
+        <v>1.037596365451833</v>
       </c>
       <c r="D2">
-        <v>1.032555581454871</v>
+        <v>1.054046483389782</v>
       </c>
       <c r="E2">
-        <v>1.015193106727969</v>
+        <v>1.036477050954368</v>
       </c>
       <c r="F2">
-        <v>1.03299069889528</v>
+        <v>1.055595045234451</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052777666245083</v>
+        <v>1.066421738483798</v>
       </c>
       <c r="J2">
-        <v>1.034772376379902</v>
+        <v>1.058707915465494</v>
       </c>
       <c r="K2">
-        <v>1.043579258170735</v>
+        <v>1.064800916704783</v>
       </c>
       <c r="L2">
-        <v>1.026444758771495</v>
+        <v>1.047450558468847</v>
       </c>
       <c r="M2">
-        <v>1.044008785460862</v>
+        <v>1.066330604114169</v>
       </c>
       <c r="N2">
-        <v>1.036241871844412</v>
+        <v>1.060211402140951</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021878012274653</v>
+        <v>1.044935887322669</v>
       </c>
       <c r="D3">
-        <v>1.03978546944378</v>
+        <v>1.060147095550614</v>
       </c>
       <c r="E3">
-        <v>1.022929804889192</v>
+        <v>1.04287229227077</v>
       </c>
       <c r="F3">
-        <v>1.041145086857473</v>
+        <v>1.062485258397674</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056242816144669</v>
+        <v>1.069767714249854</v>
       </c>
       <c r="J3">
-        <v>1.041789522511837</v>
+        <v>1.06427224875878</v>
       </c>
       <c r="K3">
-        <v>1.04993338958924</v>
+        <v>1.070064151876878</v>
       </c>
       <c r="L3">
-        <v>1.033277465818759</v>
+        <v>1.052984497556222</v>
       </c>
       <c r="M3">
-        <v>1.051277243841876</v>
+        <v>1.072376500414124</v>
       </c>
       <c r="N3">
-        <v>1.043268983128732</v>
+        <v>1.065783637425751</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027434816908517</v>
+        <v>1.049540424390205</v>
       </c>
       <c r="D4">
-        <v>1.044299885533097</v>
+        <v>1.063977040191896</v>
       </c>
       <c r="E4">
-        <v>1.027757618028909</v>
+        <v>1.046883553711749</v>
       </c>
       <c r="F4">
-        <v>1.046241080385754</v>
+        <v>1.066814637118695</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058389956321663</v>
+        <v>1.071854509228811</v>
       </c>
       <c r="J4">
-        <v>1.046161852453939</v>
+        <v>1.067756503526246</v>
       </c>
       <c r="K4">
-        <v>1.053891506818462</v>
+        <v>1.073360090113064</v>
       </c>
       <c r="L4">
-        <v>1.037532189312789</v>
+        <v>1.05644724093602</v>
       </c>
       <c r="M4">
-        <v>1.05581169809072</v>
+        <v>1.076168383919473</v>
       </c>
       <c r="N4">
-        <v>1.047647522280866</v>
+        <v>1.069272840234636</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02972499567786</v>
+        <v>1.051443465097861</v>
       </c>
       <c r="D5">
-        <v>1.046161037820131</v>
+        <v>1.065560505822693</v>
       </c>
       <c r="E5">
-        <v>1.029747289852079</v>
+        <v>1.048541129310951</v>
       </c>
       <c r="F5">
-        <v>1.048343057921858</v>
+        <v>1.068605501901335</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059271183412121</v>
+        <v>1.072713971158155</v>
       </c>
       <c r="J5">
-        <v>1.047962266149307</v>
+        <v>1.069194908682584</v>
       </c>
       <c r="K5">
-        <v>1.055521067828339</v>
+        <v>1.074720794750388</v>
       </c>
       <c r="L5">
-        <v>1.039283530897591</v>
+        <v>1.057876167462322</v>
       </c>
       <c r="M5">
-        <v>1.05768017060739</v>
+        <v>1.077735239756856</v>
       </c>
       <c r="N5">
-        <v>1.049450492770191</v>
+        <v>1.070713288091283</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030106924012703</v>
+        <v>1.051761128831519</v>
       </c>
       <c r="D6">
-        <v>1.046471449068528</v>
+        <v>1.065824855655012</v>
       </c>
       <c r="E6">
-        <v>1.030079097295768</v>
+        <v>1.048817801705967</v>
       </c>
       <c r="F6">
-        <v>1.048693698082264</v>
+        <v>1.068904529846963</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059417924582545</v>
+        <v>1.072857258362358</v>
       </c>
       <c r="J6">
-        <v>1.048262421603123</v>
+        <v>1.069434916571344</v>
       </c>
       <c r="K6">
-        <v>1.055792721749361</v>
+        <v>1.074947839927205</v>
       </c>
       <c r="L6">
-        <v>1.03957546735312</v>
+        <v>1.058114558503431</v>
       </c>
       <c r="M6">
-        <v>1.057991748221444</v>
+        <v>1.077996765762666</v>
       </c>
       <c r="N6">
-        <v>1.04975107447918</v>
+        <v>1.070953636818775</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027465594675022</v>
+        <v>1.049565979012524</v>
       </c>
       <c r="D7">
-        <v>1.04432489545418</v>
+        <v>1.063998301333029</v>
       </c>
       <c r="E7">
-        <v>1.027784357626389</v>
+        <v>1.046905813278809</v>
       </c>
       <c r="F7">
-        <v>1.046269322256417</v>
+        <v>1.066838679371212</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058401813879928</v>
+        <v>1.071866062296964</v>
       </c>
       <c r="J7">
-        <v>1.046186054667645</v>
+        <v>1.067775825372234</v>
       </c>
       <c r="K7">
-        <v>1.053913413517952</v>
+        <v>1.07337836806913</v>
       </c>
       <c r="L7">
-        <v>1.037555734427498</v>
+        <v>1.056466437830104</v>
       </c>
       <c r="M7">
-        <v>1.055836810070812</v>
+        <v>1.076189425478518</v>
       </c>
       <c r="N7">
-        <v>1.047671758864491</v>
+        <v>1.069292189519861</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016027024774612</v>
+        <v>1.040107943143956</v>
       </c>
       <c r="D8">
-        <v>1.035034466401552</v>
+        <v>1.056133499355074</v>
       </c>
       <c r="E8">
-        <v>1.017846440320982</v>
+        <v>1.038665643635628</v>
       </c>
       <c r="F8">
-        <v>1.035785666449065</v>
+        <v>1.057951408021288</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053969250400593</v>
+        <v>1.067569308232822</v>
       </c>
       <c r="J8">
-        <v>1.037180316270145</v>
+        <v>1.060613390528585</v>
       </c>
       <c r="K8">
-        <v>1.045759897884008</v>
+        <v>1.066603227671806</v>
       </c>
       <c r="L8">
-        <v>1.028789977013229</v>
+        <v>1.049346147393365</v>
       </c>
       <c r="M8">
-        <v>1.046501771322366</v>
+        <v>1.068399695758105</v>
       </c>
       <c r="N8">
-        <v>1.038653231285494</v>
+        <v>1.062119583197192</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9941295495870514</v>
+        <v>1.022238437968614</v>
       </c>
       <c r="D9">
-        <v>1.017280637504306</v>
+        <v>1.04129963373869</v>
       </c>
       <c r="E9">
-        <v>0.9988274693608997</v>
+        <v>1.023093026418955</v>
       </c>
       <c r="F9">
-        <v>1.01578576243024</v>
+        <v>1.04121844822385</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045362819229305</v>
+        <v>1.059352922267053</v>
       </c>
       <c r="J9">
-        <v>1.019891325411023</v>
+        <v>1.047029621016165</v>
       </c>
       <c r="K9">
-        <v>1.030099434793559</v>
+        <v>1.053756395352679</v>
       </c>
       <c r="L9">
-        <v>1.011939598745028</v>
+        <v>1.035822225594645</v>
       </c>
       <c r="M9">
-        <v>1.028627815145939</v>
+        <v>1.053676397829158</v>
       </c>
       <c r="N9">
-        <v>1.021339688076277</v>
+        <v>1.048516523173984</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9780851309855029</v>
+        <v>1.009365528483851</v>
       </c>
       <c r="D10">
-        <v>1.004305212610131</v>
+        <v>1.030637097131159</v>
       </c>
       <c r="E10">
-        <v>0.9849040935125435</v>
+        <v>1.011876748779495</v>
       </c>
       <c r="F10">
-        <v>1.001190202712381</v>
+        <v>1.029209590866353</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038979441260033</v>
+        <v>1.053370027424401</v>
       </c>
       <c r="J10">
-        <v>1.007196045532133</v>
+        <v>1.037212429016627</v>
       </c>
       <c r="K10">
-        <v>1.018597167766603</v>
+        <v>1.044474378003117</v>
       </c>
       <c r="L10">
-        <v>0.999551365444735</v>
+        <v>1.026034825595187</v>
       </c>
       <c r="M10">
-        <v>1.015538000882025</v>
+        <v>1.04307075173409</v>
       </c>
       <c r="N10">
-        <v>1.00862637944379</v>
+        <v>1.03868538963576</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9707181562625866</v>
+        <v>1.003523982667667</v>
       </c>
       <c r="D11">
-        <v>0.9983583343498593</v>
+        <v>1.025805772220464</v>
       </c>
       <c r="E11">
-        <v>0.978516086703509</v>
+        <v>1.006788681397661</v>
       </c>
       <c r="F11">
-        <v>0.994505358143342</v>
+        <v>1.023772360536319</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036031513845594</v>
+        <v>1.050640678380749</v>
       </c>
       <c r="J11">
-        <v>1.001361951589319</v>
+        <v>1.032750891142033</v>
       </c>
       <c r="K11">
-        <v>1.013311276629178</v>
+        <v>1.040256903728349</v>
       </c>
       <c r="L11">
-        <v>0.9938548586249027</v>
+        <v>1.021583698733274</v>
       </c>
       <c r="M11">
-        <v>1.009531644639247</v>
+        <v>1.03825947077696</v>
       </c>
       <c r="N11">
-        <v>1.002784000418397</v>
+        <v>1.034217515865637</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9679107118892416</v>
+        <v>1.001310043303349</v>
       </c>
       <c r="D12">
-        <v>0.9960940238100739</v>
+        <v>1.023975938319573</v>
       </c>
       <c r="E12">
-        <v>0.9760827028295067</v>
+        <v>1.004860690506404</v>
       </c>
       <c r="F12">
-        <v>0.9919606974046037</v>
+        <v>1.021713633354212</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034905709402842</v>
+        <v>1.049604172251825</v>
       </c>
       <c r="J12">
-        <v>0.9991380947079581</v>
+        <v>1.031059063041637</v>
       </c>
       <c r="K12">
-        <v>1.011296440711723</v>
+        <v>1.038657774840845</v>
       </c>
       <c r="L12">
-        <v>0.9916829276721765</v>
+        <v>1.019895356101338</v>
       </c>
       <c r="M12">
-        <v>1.007243555694962</v>
+        <v>1.036436331693735</v>
       </c>
       <c r="N12">
-        <v>1.000556985405185</v>
+        <v>1.032523285175284</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9685162762551127</v>
+        <v>1.001787006947564</v>
       </c>
       <c r="D13">
-        <v>0.9965823407373134</v>
+        <v>1.02437009329911</v>
       </c>
       <c r="E13">
-        <v>0.9766075337887193</v>
+        <v>1.005276031058555</v>
       </c>
       <c r="F13">
-        <v>0.9925094464024915</v>
+        <v>1.022157066962464</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035148650099108</v>
+        <v>1.049827566435773</v>
       </c>
       <c r="J13">
-        <v>0.9996178022702104</v>
+        <v>1.031423584364501</v>
       </c>
       <c r="K13">
-        <v>1.011731056831099</v>
+        <v>1.039002316057792</v>
       </c>
       <c r="L13">
-        <v>0.9921514575777081</v>
+        <v>1.020259147170128</v>
       </c>
       <c r="M13">
-        <v>1.007737052931233</v>
+        <v>1.036829085648217</v>
       </c>
       <c r="N13">
-        <v>1.001037374207199</v>
+        <v>1.032888324160237</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9704875922157903</v>
+        <v>1.003341902685017</v>
       </c>
       <c r="D14">
-        <v>0.9981723341395903</v>
+        <v>1.025655256112244</v>
       </c>
       <c r="E14">
-        <v>0.9783162212423008</v>
+        <v>1.006630110063054</v>
       </c>
       <c r="F14">
-        <v>0.9942963162338583</v>
+        <v>1.023603004655812</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035939103555015</v>
+        <v>1.050555475296093</v>
       </c>
       <c r="J14">
-        <v>1.001179325702661</v>
+        <v>1.032611768827546</v>
       </c>
       <c r="K14">
-        <v>1.013145814295058</v>
+        <v>1.040125401082697</v>
       </c>
       <c r="L14">
-        <v>0.9936765074189902</v>
+        <v>1.021444872357579</v>
       </c>
       <c r="M14">
-        <v>1.009343714525073</v>
+        <v>1.038109523757405</v>
       </c>
       <c r="N14">
-        <v>1.002601115182033</v>
+        <v>1.034078195981507</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9716925105606311</v>
+        <v>1.004293950685453</v>
       </c>
       <c r="D15">
-        <v>0.9991444449430301</v>
+        <v>1.026442316006728</v>
       </c>
       <c r="E15">
-        <v>0.9793607516197176</v>
+        <v>1.007459253810081</v>
       </c>
       <c r="F15">
-        <v>0.9953888775053817</v>
+        <v>1.024488602881266</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03642193994631</v>
+        <v>1.051000895410702</v>
       </c>
       <c r="J15">
-        <v>1.002133699114593</v>
+        <v>1.033339166128356</v>
       </c>
       <c r="K15">
-        <v>1.014010496387435</v>
+        <v>1.040812965361795</v>
       </c>
       <c r="L15">
-        <v>0.9946085210284409</v>
+        <v>1.022170703620555</v>
       </c>
       <c r="M15">
-        <v>1.010325865432603</v>
+        <v>1.038893571193063</v>
       </c>
       <c r="N15">
-        <v>1.003556843913678</v>
+        <v>1.034806626269917</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9785645628723906</v>
+        <v>1.009747252415369</v>
       </c>
       <c r="D16">
-        <v>1.004692476666887</v>
+        <v>1.030952967765467</v>
       </c>
       <c r="E16">
-        <v>0.9853199380863069</v>
+        <v>1.012209281125056</v>
       </c>
       <c r="F16">
-        <v>1.001625613477003</v>
+        <v>1.029565158314232</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039170951917234</v>
+        <v>1.05354808922105</v>
       </c>
       <c r="J16">
-        <v>1.007575632114683</v>
+        <v>1.037503844301983</v>
       </c>
       <c r="K16">
-        <v>1.018941090431932</v>
+        <v>1.044749871052447</v>
       </c>
       <c r="L16">
-        <v>0.9999219284637626</v>
+        <v>1.026325496832002</v>
       </c>
       <c r="M16">
-        <v>1.015928987228363</v>
+        <v>1.043385190428517</v>
       </c>
       <c r="N16">
-        <v>1.009006505082826</v>
+        <v>1.038977218764247</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9827576723754047</v>
+        <v>1.013093728702131</v>
       </c>
       <c r="D17">
-        <v>1.008080742797592</v>
+        <v>1.033722951108145</v>
       </c>
       <c r="E17">
-        <v>0.9889575035703021</v>
+        <v>1.015124714430169</v>
       </c>
       <c r="F17">
-        <v>1.005435633509866</v>
+        <v>1.032683719502094</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040844024079903</v>
+        <v>1.055107497993718</v>
       </c>
       <c r="J17">
-        <v>1.010894961963896</v>
+        <v>1.040057869607605</v>
       </c>
       <c r="K17">
-        <v>1.021948555422557</v>
+        <v>1.047164448339151</v>
       </c>
       <c r="L17">
-        <v>1.003161958182837</v>
+        <v>1.028872649665282</v>
       </c>
       <c r="M17">
-        <v>1.019349022927776</v>
+        <v>1.046141966177329</v>
       </c>
       <c r="N17">
-        <v>1.012330548761157</v>
+        <v>1.041534871078754</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.985163561148341</v>
+        <v>1.015020155358588</v>
       </c>
       <c r="D18">
-        <v>1.010025830783089</v>
+        <v>1.035318178004127</v>
       </c>
       <c r="E18">
-        <v>0.9910450921560572</v>
+        <v>1.016803160539309</v>
       </c>
       <c r="F18">
-        <v>1.007623265843969</v>
+        <v>1.034480081330397</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041802399127529</v>
+        <v>1.056003828881078</v>
       </c>
       <c r="J18">
-        <v>1.012799030889659</v>
+        <v>1.041527487003173</v>
       </c>
       <c r="K18">
-        <v>1.02367372066551</v>
+        <v>1.048553903490304</v>
       </c>
       <c r="L18">
-        <v>1.005020210254083</v>
+        <v>1.030338018811181</v>
       </c>
       <c r="M18">
-        <v>1.021311696535853</v>
+        <v>1.047729051002085</v>
       </c>
       <c r="N18">
-        <v>1.014237321683195</v>
+        <v>1.043006575499589</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9859773621470014</v>
+        <v>1.015672800290669</v>
       </c>
       <c r="D19">
-        <v>1.010683924659789</v>
+        <v>1.035858725582653</v>
       </c>
       <c r="E19">
-        <v>0.9917512980546808</v>
+        <v>1.01737181589012</v>
       </c>
       <c r="F19">
-        <v>1.008363495597183</v>
+        <v>1.035088851079065</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042126299895013</v>
+        <v>1.056307260478328</v>
       </c>
       <c r="J19">
-        <v>1.013443005290555</v>
+        <v>1.042025262728393</v>
       </c>
       <c r="K19">
-        <v>1.024257185003288</v>
+        <v>1.049024539958076</v>
       </c>
       <c r="L19">
-        <v>1.005648633142092</v>
+        <v>1.030834305580429</v>
       </c>
       <c r="M19">
-        <v>1.021975631592563</v>
+        <v>1.048266749700359</v>
       </c>
       <c r="N19">
-        <v>1.014882210601605</v>
+        <v>1.043505058123436</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C20">
-        <v>0.9823119696108362</v>
+        <v>1.012737349542998</v>
       </c>
       <c r="D20">
-        <v>1.007720484428384</v>
+        <v>1.033427894935737</v>
       </c>
       <c r="E20">
-        <v>0.9885708029629037</v>
+        <v>1.014814221989627</v>
       </c>
       <c r="F20">
-        <v>1.005030487646296</v>
+        <v>1.032351492819843</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040666350590874</v>
+        <v>1.054941570957062</v>
       </c>
       <c r="J20">
-        <v>1.010542184599329</v>
+        <v>1.039785946350409</v>
       </c>
       <c r="K20">
-        <v>1.021628923434831</v>
+        <v>1.046907363659314</v>
       </c>
       <c r="L20">
-        <v>1.00281764289558</v>
+        <v>1.028601488604014</v>
       </c>
       <c r="M20">
-        <v>1.018985454999746</v>
+        <v>1.045848372800843</v>
       </c>
       <c r="N20">
-        <v>1.011977270412268</v>
+        <v>1.041262561659342</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9699091207554063</v>
+        <v>1.002885277187237</v>
       </c>
       <c r="D21">
-        <v>0.9977057032412059</v>
+        <v>1.025277807790095</v>
       </c>
       <c r="E21">
-        <v>0.9778147874492343</v>
+        <v>1.006232446806153</v>
       </c>
       <c r="F21">
-        <v>0.9937718891228601</v>
+        <v>1.023178321320726</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035707213778554</v>
+        <v>1.050341767260616</v>
       </c>
       <c r="J21">
-        <v>1.000721119692759</v>
+        <v>1.032262859506258</v>
       </c>
       <c r="K21">
-        <v>1.012730672534534</v>
+        <v>1.03979560385766</v>
       </c>
       <c r="L21">
-        <v>0.9932290182173236</v>
+        <v>1.021096697827318</v>
       </c>
       <c r="M21">
-        <v>1.008872223515565</v>
+        <v>1.037733487992825</v>
       </c>
       <c r="N21">
-        <v>1.002142258467039</v>
+        <v>1.033728791168962</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9616949476202856</v>
+        <v>0.9964332038605311</v>
       </c>
       <c r="D22">
-        <v>0.9910847885222992</v>
+        <v>1.019947663709054</v>
       </c>
       <c r="E22">
-        <v>0.9706972439445286</v>
+        <v>1.000614587854696</v>
       </c>
       <c r="F22">
-        <v>0.9863323660643039</v>
+        <v>1.017182514399216</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032408904624544</v>
+        <v>1.047317211513432</v>
       </c>
       <c r="J22">
-        <v>0.9942135671854651</v>
+        <v>1.027330749313259</v>
       </c>
       <c r="K22">
-        <v>1.006834950767051</v>
+        <v>1.035134047129793</v>
       </c>
       <c r="L22">
-        <v>0.9868724353043576</v>
+        <v>1.016173879463648</v>
       </c>
       <c r="M22">
-        <v>1.002179532425191</v>
+        <v>1.032421098096105</v>
       </c>
       <c r="N22">
-        <v>0.9956254644887587</v>
+        <v>1.028789676813768</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9660919366513054</v>
+        <v>0.9998794584550545</v>
       </c>
       <c r="D23">
-        <v>0.9946277078455714</v>
+        <v>1.022793919863046</v>
       </c>
       <c r="E23">
-        <v>0.9745065705537992</v>
+        <v>1.00361500153166</v>
       </c>
       <c r="F23">
-        <v>0.9903130049683346</v>
+        <v>1.020383918713494</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034175714026631</v>
+        <v>1.048933833705984</v>
       </c>
       <c r="J23">
-        <v>0.9976972535334437</v>
+        <v>1.02996560682732</v>
       </c>
       <c r="K23">
-        <v>1.009991048818356</v>
+        <v>1.037624276814174</v>
       </c>
       <c r="L23">
-        <v>0.9902755841071812</v>
+        <v>1.018804023321991</v>
       </c>
       <c r="M23">
-        <v>1.005761512196139</v>
+        <v>1.035258380352459</v>
       </c>
       <c r="N23">
-        <v>0.9991140980709357</v>
+        <v>1.031428276127721</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9825134861646454</v>
+        <v>1.012898460506021</v>
       </c>
       <c r="D24">
-        <v>1.007883365746787</v>
+        <v>1.033561281113017</v>
       </c>
       <c r="E24">
-        <v>0.9887456413429203</v>
+        <v>1.014954588138091</v>
       </c>
       <c r="F24">
-        <v>1.005213662320313</v>
+        <v>1.032501681473095</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040746687437823</v>
+        <v>1.055016587038172</v>
       </c>
       <c r="J24">
-        <v>1.010701688064225</v>
+        <v>1.039908878667785</v>
       </c>
       <c r="K24">
-        <v>1.021773440701319</v>
+        <v>1.047023587444035</v>
       </c>
       <c r="L24">
-        <v>1.002973321368676</v>
+        <v>1.028724077257827</v>
       </c>
       <c r="M24">
-        <v>1.019149834671709</v>
+        <v>1.045981099353529</v>
       </c>
       <c r="N24">
-        <v>1.01213700039038</v>
+        <v>1.041385668554709</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.000022768274191</v>
+        <v>1.027015187170832</v>
       </c>
       <c r="D25">
-        <v>1.02205402909117</v>
+        <v>1.045261389928913</v>
       </c>
       <c r="E25">
-        <v>1.003944618440903</v>
+        <v>1.027255816403983</v>
       </c>
       <c r="F25">
-        <v>1.021159286971385</v>
+        <v>1.045684122313814</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047692494844742</v>
+        <v>1.06156036068886</v>
       </c>
       <c r="J25">
-        <v>1.024549366200308</v>
+        <v>1.05066637476047</v>
       </c>
       <c r="K25">
-        <v>1.034319366364338</v>
+        <v>1.057195483053544</v>
       </c>
       <c r="L25">
-        <v>1.01648200636425</v>
+        <v>1.039445257731913</v>
       </c>
       <c r="M25">
-        <v>1.033437777823364</v>
+        <v>1.057612353677051</v>
       </c>
       <c r="N25">
-        <v>1.026004343817768</v>
+        <v>1.052158441525747</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_24/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.037596365451833</v>
+        <v>1.020170027914259</v>
       </c>
       <c r="D2">
-        <v>1.054046483389782</v>
+        <v>1.03824349647086</v>
       </c>
       <c r="E2">
-        <v>1.036477050954368</v>
+        <v>1.023731082860443</v>
       </c>
       <c r="F2">
-        <v>1.055595045234451</v>
+        <v>1.039139274063416</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.066421738483798</v>
+        <v>1.056079597589857</v>
       </c>
       <c r="J2">
-        <v>1.058707915465494</v>
+        <v>1.041763749991993</v>
       </c>
       <c r="K2">
-        <v>1.064800916704783</v>
+        <v>1.049194559597921</v>
       </c>
       <c r="L2">
-        <v>1.047450558468847</v>
+        <v>1.034869417018244</v>
       </c>
       <c r="M2">
-        <v>1.066330604114169</v>
+        <v>1.050078991872373</v>
       </c>
       <c r="N2">
-        <v>1.060211402140951</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.017383622392871</v>
+      </c>
+      <c r="Q2">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R2">
+        <v>1.045855067022773</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.044935887322669</v>
+        <v>1.024514536665398</v>
       </c>
       <c r="D3">
-        <v>1.060147095550614</v>
+        <v>1.041381066857937</v>
       </c>
       <c r="E3">
-        <v>1.04287229227077</v>
+        <v>1.027218288593566</v>
       </c>
       <c r="F3">
-        <v>1.062485258397674</v>
+        <v>1.043020009311676</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.069767714249854</v>
+        <v>1.057531874860879</v>
       </c>
       <c r="J3">
-        <v>1.06427224875878</v>
+        <v>1.044358509480307</v>
       </c>
       <c r="K3">
-        <v>1.070064151876878</v>
+        <v>1.05151049311207</v>
       </c>
       <c r="L3">
-        <v>1.052984497556222</v>
+        <v>1.037514359640323</v>
       </c>
       <c r="M3">
-        <v>1.072376500414124</v>
+        <v>1.053130512041883</v>
       </c>
       <c r="N3">
-        <v>1.065783637425751</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.018282856672772</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.047489965602648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.049540424390205</v>
+        <v>1.027272503891497</v>
       </c>
       <c r="D4">
-        <v>1.063977040191896</v>
+        <v>1.043376828231127</v>
       </c>
       <c r="E4">
-        <v>1.046883553711749</v>
+        <v>1.029437667394927</v>
       </c>
       <c r="F4">
-        <v>1.066814637118695</v>
+        <v>1.045489994649107</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.071854509228811</v>
+        <v>1.058444572043952</v>
       </c>
       <c r="J4">
-        <v>1.067756503526246</v>
+        <v>1.046003400317087</v>
       </c>
       <c r="K4">
-        <v>1.073360090113064</v>
+        <v>1.052978470564403</v>
       </c>
       <c r="L4">
-        <v>1.05644724093602</v>
+        <v>1.039193327798818</v>
       </c>
       <c r="M4">
-        <v>1.076168383919473</v>
+        <v>1.055068727700207</v>
       </c>
       <c r="N4">
-        <v>1.069272840234636</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.018852837460553</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.048528817176224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.051443465097861</v>
+        <v>1.028424597510573</v>
       </c>
       <c r="D5">
-        <v>1.065560505822693</v>
+        <v>1.044213523148007</v>
       </c>
       <c r="E5">
-        <v>1.048541129310951</v>
+        <v>1.030366804907003</v>
       </c>
       <c r="F5">
-        <v>1.068605501901335</v>
+        <v>1.046524426819065</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.072713971158155</v>
+        <v>1.058825336969083</v>
       </c>
       <c r="J5">
-        <v>1.069194908682584</v>
+        <v>1.046691827616247</v>
       </c>
       <c r="K5">
-        <v>1.074720794750388</v>
+        <v>1.053594106457493</v>
       </c>
       <c r="L5">
-        <v>1.057876167462322</v>
+        <v>1.039896269962704</v>
       </c>
       <c r="M5">
-        <v>1.077735239756856</v>
+        <v>1.055880632116713</v>
       </c>
       <c r="N5">
-        <v>1.070713288091283</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.019092281228669</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.048971199679502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.051761128831519</v>
+        <v>1.028623359330765</v>
       </c>
       <c r="D6">
-        <v>1.065824855655012</v>
+        <v>1.044360450779033</v>
       </c>
       <c r="E6">
-        <v>1.048817801705967</v>
+        <v>1.030528041301763</v>
       </c>
       <c r="F6">
-        <v>1.068904529846963</v>
+        <v>1.046704340691361</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.072857258362358</v>
+        <v>1.058893028331589</v>
       </c>
       <c r="J6">
-        <v>1.069434916571344</v>
+        <v>1.046812851755019</v>
       </c>
       <c r="K6">
-        <v>1.074947839927205</v>
+        <v>1.053703895328879</v>
       </c>
       <c r="L6">
-        <v>1.058114558503431</v>
+        <v>1.040019524877203</v>
       </c>
       <c r="M6">
-        <v>1.077996765762666</v>
+        <v>1.056023173998808</v>
       </c>
       <c r="N6">
-        <v>1.070953636818775</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.019135484108076</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.049057467476964</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.049565979012524</v>
+        <v>1.027304218921892</v>
       </c>
       <c r="D7">
-        <v>1.063998301333029</v>
+        <v>1.043406621441349</v>
       </c>
       <c r="E7">
-        <v>1.046905813278809</v>
+        <v>1.029465585818776</v>
       </c>
       <c r="F7">
-        <v>1.066838679371212</v>
+        <v>1.045522106917955</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.071866062296964</v>
+        <v>1.058460792058795</v>
       </c>
       <c r="J7">
-        <v>1.067775825372234</v>
+        <v>1.046028515792982</v>
       </c>
       <c r="K7">
-        <v>1.07337836806913</v>
+        <v>1.053005104670145</v>
       </c>
       <c r="L7">
-        <v>1.056466437830104</v>
+        <v>1.039218046021311</v>
       </c>
       <c r="M7">
-        <v>1.076189425478518</v>
+        <v>1.055097665007766</v>
       </c>
       <c r="N7">
-        <v>1.069292189519861</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.01886460177344</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.048567526046868</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040107943143956</v>
+        <v>1.021670139354791</v>
       </c>
       <c r="D8">
-        <v>1.056133499355074</v>
+        <v>1.039334418588084</v>
       </c>
       <c r="E8">
-        <v>1.038665643635628</v>
+        <v>1.024937084384962</v>
       </c>
       <c r="F8">
-        <v>1.057951408021288</v>
+        <v>1.040482423221601</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.067569308232822</v>
+        <v>1.05659001470361</v>
       </c>
       <c r="J8">
-        <v>1.060613390528585</v>
+        <v>1.042667882046054</v>
       </c>
       <c r="K8">
-        <v>1.066603227671806</v>
+        <v>1.050006690341257</v>
       </c>
       <c r="L8">
-        <v>1.049346147393365</v>
+        <v>1.035789538111593</v>
       </c>
       <c r="M8">
-        <v>1.068399695758105</v>
+        <v>1.051140594783314</v>
       </c>
       <c r="N8">
-        <v>1.062119583197192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.017700960947231</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.046451973910866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.022238437968614</v>
+        <v>1.011287534163946</v>
       </c>
       <c r="D9">
-        <v>1.04129963373869</v>
+        <v>1.031852854776342</v>
       </c>
       <c r="E9">
-        <v>1.023093026418955</v>
+        <v>1.016634541002099</v>
       </c>
       <c r="F9">
-        <v>1.04121844822385</v>
+        <v>1.031242148295142</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.059352922267053</v>
+        <v>1.053061605322591</v>
       </c>
       <c r="J9">
-        <v>1.047029621016165</v>
+        <v>1.036447901621182</v>
       </c>
       <c r="K9">
-        <v>1.053756395352679</v>
+        <v>1.04444944784361</v>
       </c>
       <c r="L9">
-        <v>1.035822225594645</v>
+        <v>1.029463378741103</v>
       </c>
       <c r="M9">
-        <v>1.053676397829158</v>
+        <v>1.043847893246843</v>
       </c>
       <c r="N9">
-        <v>1.048516523173984</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.01554173743625</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.04251954599551</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.009365528483851</v>
+        <v>1.004053211939487</v>
       </c>
       <c r="D10">
-        <v>1.030637097131159</v>
+        <v>1.026668103771707</v>
       </c>
       <c r="E10">
-        <v>1.011876748779495</v>
+        <v>1.010885120669195</v>
       </c>
       <c r="F10">
-        <v>1.029209590866353</v>
+        <v>1.024843412264125</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053370027424401</v>
+        <v>1.050558845637502</v>
       </c>
       <c r="J10">
-        <v>1.037212429016627</v>
+        <v>1.032106934327748</v>
       </c>
       <c r="K10">
-        <v>1.044474378003117</v>
+        <v>1.040571991841011</v>
       </c>
       <c r="L10">
-        <v>1.026034825595187</v>
+        <v>1.025060583350691</v>
       </c>
       <c r="M10">
-        <v>1.04307075173409</v>
+        <v>1.038778145518534</v>
       </c>
       <c r="N10">
-        <v>1.03868538963576</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.01403641427995</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.039794666897084</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.003523982667667</v>
+        <v>1.000860025607879</v>
       </c>
       <c r="D11">
-        <v>1.025805772220464</v>
+        <v>1.024394741878114</v>
       </c>
       <c r="E11">
-        <v>1.006788681397661</v>
+        <v>1.008359988533716</v>
       </c>
       <c r="F11">
-        <v>1.023772360536319</v>
+        <v>1.02203325429975</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050640678380749</v>
+        <v>1.049450551379014</v>
       </c>
       <c r="J11">
-        <v>1.032750891142033</v>
+        <v>1.030197070224669</v>
       </c>
       <c r="K11">
-        <v>1.040256903728349</v>
+        <v>1.038870820165233</v>
       </c>
       <c r="L11">
-        <v>1.021583698733274</v>
+        <v>1.023125951222798</v>
       </c>
       <c r="M11">
-        <v>1.03825947077696</v>
+        <v>1.036551283340406</v>
       </c>
       <c r="N11">
-        <v>1.034217515865637</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.013379061910207</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.038624540613412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.001310043303349</v>
+        <v>0.9996488181820795</v>
       </c>
       <c r="D12">
-        <v>1.023975938319573</v>
+        <v>1.023528853162804</v>
       </c>
       <c r="E12">
-        <v>1.004860690506404</v>
+        <v>1.007401517098812</v>
       </c>
       <c r="F12">
-        <v>1.021713633354212</v>
+        <v>1.020966299930681</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049604172251825</v>
+        <v>1.049024869901004</v>
       </c>
       <c r="J12">
-        <v>1.031059063041637</v>
+        <v>1.029468048093187</v>
       </c>
       <c r="K12">
-        <v>1.038657774840845</v>
+        <v>1.038218746333232</v>
       </c>
       <c r="L12">
-        <v>1.019895356101338</v>
+        <v>1.022388276358029</v>
       </c>
       <c r="M12">
-        <v>1.036436331693735</v>
+        <v>1.035702548390182</v>
       </c>
       <c r="N12">
-        <v>1.032523285175284</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.013125601748989</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.038163507324929</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.001787006947564</v>
+        <v>0.9999068322323407</v>
       </c>
       <c r="D13">
-        <v>1.02437009329911</v>
+        <v>1.023712348252127</v>
       </c>
       <c r="E13">
-        <v>1.005276031058555</v>
+        <v>1.007605218087294</v>
       </c>
       <c r="F13">
-        <v>1.022157066962464</v>
+        <v>1.021193019470473</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049827566435773</v>
+        <v>1.049114886376272</v>
       </c>
       <c r="J13">
-        <v>1.031423584364501</v>
+        <v>1.02962250014527</v>
       </c>
       <c r="K13">
-        <v>1.039002316057792</v>
+        <v>1.038356375616873</v>
       </c>
       <c r="L13">
-        <v>1.020259147170128</v>
+        <v>1.022544600758726</v>
       </c>
       <c r="M13">
-        <v>1.036829085648217</v>
+        <v>1.03588244434863</v>
       </c>
       <c r="N13">
-        <v>1.032888324160237</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.01317878919266</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.038258333007409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.003341902685017</v>
+        <v>1.000759156725789</v>
       </c>
       <c r="D14">
-        <v>1.025655256112244</v>
+        <v>1.024322220239053</v>
       </c>
       <c r="E14">
-        <v>1.006630110063054</v>
+        <v>1.008279963937196</v>
       </c>
       <c r="F14">
-        <v>1.023603004655812</v>
+        <v>1.021944155361032</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050555475296093</v>
+        <v>1.04941481925623</v>
       </c>
       <c r="J14">
-        <v>1.032611768827546</v>
+        <v>1.030135996929999</v>
       </c>
       <c r="K14">
-        <v>1.040125401082697</v>
+        <v>1.038815970431023</v>
       </c>
       <c r="L14">
-        <v>1.021444872357579</v>
+        <v>1.023064169800789</v>
       </c>
       <c r="M14">
-        <v>1.038109523757405</v>
+        <v>1.036480214550052</v>
       </c>
       <c r="N14">
-        <v>1.034078195981507</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.013357611202835</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.038584697392313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.004293950685453</v>
+        <v>1.001287279840855</v>
       </c>
       <c r="D15">
-        <v>1.026442316006728</v>
+        <v>1.024702064077387</v>
       </c>
       <c r="E15">
-        <v>1.007459253810081</v>
+        <v>1.008699049350398</v>
       </c>
       <c r="F15">
-        <v>1.024488602881266</v>
+        <v>1.022410768631083</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051000895410702</v>
+        <v>1.04960191652037</v>
       </c>
       <c r="J15">
-        <v>1.033339166128356</v>
+        <v>1.030455838967419</v>
       </c>
       <c r="K15">
-        <v>1.040812965361795</v>
+        <v>1.039103274471482</v>
       </c>
       <c r="L15">
-        <v>1.022170703620555</v>
+        <v>1.0233877313606</v>
       </c>
       <c r="M15">
-        <v>1.038893571193063</v>
+        <v>1.036852422900438</v>
       </c>
       <c r="N15">
-        <v>1.034806626269917</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.013469999441939</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.038793673260732</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.009747252415369</v>
+        <v>1.004303935103837</v>
       </c>
       <c r="D16">
-        <v>1.030952967765467</v>
+        <v>1.026862496444415</v>
       </c>
       <c r="E16">
-        <v>1.012209281125056</v>
+        <v>1.011090500993524</v>
       </c>
       <c r="F16">
-        <v>1.029565158314232</v>
+        <v>1.025072876019002</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05354808922105</v>
+        <v>1.050658344661677</v>
       </c>
       <c r="J16">
-        <v>1.037503844301983</v>
+        <v>1.032271584486326</v>
       </c>
       <c r="K16">
-        <v>1.044749871052447</v>
+        <v>1.040727801682573</v>
       </c>
       <c r="L16">
-        <v>1.026325496832002</v>
+        <v>1.025226260929597</v>
       </c>
       <c r="M16">
-        <v>1.043385190428517</v>
+        <v>1.038968329230241</v>
       </c>
       <c r="N16">
-        <v>1.038977218764247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.014101724955005</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.039945406005706</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.013093728702131</v>
+        <v>1.006173268415114</v>
       </c>
       <c r="D17">
-        <v>1.033722951108145</v>
+        <v>1.028203060238713</v>
       </c>
       <c r="E17">
-        <v>1.015124714430169</v>
+        <v>1.012574763501384</v>
       </c>
       <c r="F17">
-        <v>1.032683719502094</v>
+        <v>1.02672509460256</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.055107497993718</v>
+        <v>1.051310212242614</v>
       </c>
       <c r="J17">
-        <v>1.040057869607605</v>
+        <v>1.0333962667264</v>
       </c>
       <c r="K17">
-        <v>1.047164448339151</v>
+        <v>1.041734020526428</v>
       </c>
       <c r="L17">
-        <v>1.028872649665282</v>
+        <v>1.026365846285053</v>
       </c>
       <c r="M17">
-        <v>1.046141966177329</v>
+        <v>1.040280218752104</v>
       </c>
       <c r="N17">
-        <v>1.041534871078754</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.014493017512874</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.040659399433087</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.015020155358588</v>
+        <v>1.007243186184411</v>
       </c>
       <c r="D18">
-        <v>1.035318178004127</v>
+        <v>1.028966163148927</v>
       </c>
       <c r="E18">
-        <v>1.016803160539309</v>
+        <v>1.013423048032332</v>
       </c>
       <c r="F18">
-        <v>1.034480081330397</v>
+        <v>1.027669037729281</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.056003828881078</v>
+        <v>1.051678412215101</v>
       </c>
       <c r="J18">
-        <v>1.041527487003173</v>
+        <v>1.034035320034865</v>
       </c>
       <c r="K18">
-        <v>1.048553903490304</v>
+        <v>1.042302957405251</v>
       </c>
       <c r="L18">
-        <v>1.030338018811181</v>
+        <v>1.027014036021363</v>
       </c>
       <c r="M18">
-        <v>1.047729051002085</v>
+        <v>1.041026668011247</v>
       </c>
       <c r="N18">
-        <v>1.043006575499589</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.014712778673125</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.04105008338259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,81 +1232,93 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.015672800290669</v>
+        <v>1.00761623314612</v>
       </c>
       <c r="D19">
-        <v>1.035858725582653</v>
+        <v>1.029236080530059</v>
       </c>
       <c r="E19">
-        <v>1.01737181589012</v>
+        <v>1.01372056169596</v>
       </c>
       <c r="F19">
-        <v>1.035088851079065</v>
+        <v>1.028000352389699</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.056307260478328</v>
+        <v>1.051809662009049</v>
       </c>
       <c r="J19">
-        <v>1.042025262728393</v>
+        <v>1.034261600223814</v>
       </c>
       <c r="K19">
-        <v>1.049024539958076</v>
+        <v>1.042506604033821</v>
       </c>
       <c r="L19">
-        <v>1.030834305580429</v>
+        <v>1.02724329340963</v>
       </c>
       <c r="M19">
-        <v>1.048266749700359</v>
+        <v>1.041290605182257</v>
       </c>
       <c r="N19">
-        <v>1.043505058123436</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.014792615664805</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.041200419067781</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.012737349542998</v>
+        <v>1.005972578123148</v>
       </c>
       <c r="D20">
-        <v>1.033427894935737</v>
+        <v>1.028058699859484</v>
       </c>
       <c r="E20">
-        <v>1.014814221989627</v>
+        <v>1.012415166654967</v>
       </c>
       <c r="F20">
-        <v>1.032351492819843</v>
+        <v>1.026547415266855</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054941570957062</v>
+        <v>1.051240030802977</v>
       </c>
       <c r="J20">
-        <v>1.039785946350409</v>
+        <v>1.033275192597596</v>
       </c>
       <c r="K20">
-        <v>1.046907363659314</v>
+        <v>1.041625483758992</v>
       </c>
       <c r="L20">
-        <v>1.028601488604014</v>
+        <v>1.026243167573883</v>
       </c>
       <c r="M20">
-        <v>1.045848372800843</v>
+        <v>1.040138987899887</v>
       </c>
       <c r="N20">
-        <v>1.041262561659342</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.01445069293848</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.040581333928234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.002885277187237</v>
+        <v>1.000522015590835</v>
       </c>
       <c r="D21">
-        <v>1.025277807790095</v>
+        <v>1.024157602896522</v>
       </c>
       <c r="E21">
-        <v>1.006232446806153</v>
+        <v>1.008094491019384</v>
       </c>
       <c r="F21">
-        <v>1.023178321320726</v>
+        <v>1.021737909599517</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050341767260616</v>
+        <v>1.049335514409013</v>
       </c>
       <c r="J21">
-        <v>1.032262859506258</v>
+        <v>1.029997927749068</v>
       </c>
       <c r="K21">
-        <v>1.03979560385766</v>
+        <v>1.038695313728325</v>
       </c>
       <c r="L21">
-        <v>1.021096697827318</v>
+        <v>1.022924116547227</v>
       </c>
       <c r="M21">
-        <v>1.037733487992825</v>
+        <v>1.036318830805147</v>
       </c>
       <c r="N21">
-        <v>1.033728791168962</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.013312379707284</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.038512840777973</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9964332038605311</v>
+        <v>0.9970009051436657</v>
       </c>
       <c r="D22">
-        <v>1.019947663709054</v>
+        <v>1.021637292993929</v>
       </c>
       <c r="E22">
-        <v>1.000614587854696</v>
+        <v>1.005308456332997</v>
       </c>
       <c r="F22">
-        <v>1.017182514399216</v>
+        <v>1.018636253194696</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047317211513432</v>
+        <v>1.048090969654597</v>
       </c>
       <c r="J22">
-        <v>1.027330749313259</v>
+        <v>1.027873298119745</v>
       </c>
       <c r="K22">
-        <v>1.035134047129793</v>
+        <v>1.036791961300693</v>
       </c>
       <c r="L22">
-        <v>1.016173879463648</v>
+        <v>1.020775480107247</v>
       </c>
       <c r="M22">
-        <v>1.032421098096105</v>
+        <v>1.033847347154894</v>
       </c>
       <c r="N22">
-        <v>1.028789676813768</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.012570832978504</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.037153665995511</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9998794584550545</v>
+        <v>0.9988589002441256</v>
       </c>
       <c r="D23">
-        <v>1.022793919863046</v>
+        <v>1.02296048610113</v>
       </c>
       <c r="E23">
-        <v>1.00361500153166</v>
+        <v>1.006775019876385</v>
       </c>
       <c r="F23">
-        <v>1.020383918713494</v>
+        <v>1.020268729145754</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048933833705984</v>
+        <v>1.048743622366336</v>
       </c>
       <c r="J23">
-        <v>1.02996560682732</v>
+        <v>1.028988791603834</v>
       </c>
       <c r="K23">
-        <v>1.037624276814174</v>
+        <v>1.037787804768052</v>
       </c>
       <c r="L23">
-        <v>1.018804023321991</v>
+        <v>1.021903716469102</v>
       </c>
       <c r="M23">
-        <v>1.035258380352459</v>
+        <v>1.035145305629734</v>
       </c>
       <c r="N23">
-        <v>1.031428276127721</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.012956740596436</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.037848169461122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.012898460506021</v>
+        <v>1.006037137586423</v>
       </c>
       <c r="D24">
-        <v>1.033561281113017</v>
+        <v>1.028095103995333</v>
       </c>
       <c r="E24">
-        <v>1.014954588138091</v>
+        <v>1.012462173229964</v>
       </c>
       <c r="F24">
-        <v>1.032501681473095</v>
+        <v>1.026599105890439</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.055016587038172</v>
+        <v>1.05125445732274</v>
       </c>
       <c r="J24">
-        <v>1.039908878667785</v>
+        <v>1.03330475719033</v>
       </c>
       <c r="K24">
-        <v>1.047023587444035</v>
+        <v>1.041646170304046</v>
       </c>
       <c r="L24">
-        <v>1.028724077257827</v>
+        <v>1.026273917409408</v>
       </c>
       <c r="M24">
-        <v>1.045981099353529</v>
+        <v>1.040174676105794</v>
       </c>
       <c r="N24">
-        <v>1.041385668554709</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.014455626872913</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.040568727075472</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027015187170832</v>
+        <v>1.014052227008302</v>
       </c>
       <c r="D25">
-        <v>1.045261389928913</v>
+        <v>1.033851385359434</v>
       </c>
       <c r="E25">
-        <v>1.027255816403983</v>
+        <v>1.018843832641953</v>
       </c>
       <c r="F25">
-        <v>1.045684122313814</v>
+        <v>1.033701937161443</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.06156036068886</v>
+        <v>1.054018084491432</v>
       </c>
       <c r="J25">
-        <v>1.05066637476047</v>
+        <v>1.038115758738613</v>
       </c>
       <c r="K25">
-        <v>1.057195483053544</v>
+        <v>1.045945984659469</v>
       </c>
       <c r="L25">
-        <v>1.039445257731913</v>
+        <v>1.031156499208357</v>
       </c>
       <c r="M25">
-        <v>1.057612353677051</v>
+        <v>1.04579866851673</v>
       </c>
       <c r="N25">
-        <v>1.052158441525747</v>
+        <v>1.016126097196045</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.043606027673452</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_24/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020170027914259</v>
+        <v>1.01848624656756</v>
       </c>
       <c r="D2">
-        <v>1.03824349647086</v>
+        <v>1.035932116028863</v>
       </c>
       <c r="E2">
-        <v>1.023731082860443</v>
+        <v>1.022321756044327</v>
       </c>
       <c r="F2">
-        <v>1.039139274063416</v>
+        <v>1.036932620124582</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.056079597589857</v>
+        <v>1.054782103260854</v>
       </c>
       <c r="J2">
-        <v>1.041763749991993</v>
+        <v>1.040127753890048</v>
       </c>
       <c r="K2">
-        <v>1.049194559597921</v>
+        <v>1.046912566763782</v>
       </c>
       <c r="L2">
-        <v>1.034869417018244</v>
+        <v>1.033478631532266</v>
       </c>
       <c r="M2">
-        <v>1.050078991872373</v>
+        <v>1.047900330056063</v>
       </c>
       <c r="N2">
-        <v>1.017383622392871</v>
+        <v>1.017572864088507</v>
       </c>
       <c r="Q2">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.045855067022773</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.044250223085667</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024362377315958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024514536665398</v>
+        <v>1.022550022336212</v>
       </c>
       <c r="D3">
-        <v>1.041381066857937</v>
+        <v>1.03874986208797</v>
       </c>
       <c r="E3">
-        <v>1.027218288593566</v>
+        <v>1.025557840729325</v>
       </c>
       <c r="F3">
-        <v>1.043020009311676</v>
+        <v>1.04049927866911</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.057531874860879</v>
+        <v>1.056040782714712</v>
       </c>
       <c r="J3">
-        <v>1.044358509480307</v>
+        <v>1.042444273571192</v>
       </c>
       <c r="K3">
-        <v>1.05151049311207</v>
+        <v>1.048909823110528</v>
       </c>
       <c r="L3">
-        <v>1.037514359640323</v>
+        <v>1.035873823223485</v>
       </c>
       <c r="M3">
-        <v>1.053130512041883</v>
+        <v>1.050638916689977</v>
       </c>
       <c r="N3">
-        <v>1.018282856672772</v>
+        <v>1.018204585683568</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.047489965602648</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.045659515202827</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024803499314137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027272503891497</v>
+        <v>1.025131866585907</v>
       </c>
       <c r="D4">
-        <v>1.043376828231127</v>
+        <v>1.04054402117999</v>
       </c>
       <c r="E4">
-        <v>1.029437667394927</v>
+        <v>1.027619545530617</v>
       </c>
       <c r="F4">
-        <v>1.045489994649107</v>
+        <v>1.042771668850343</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.058444572043952</v>
+        <v>1.056831288190266</v>
       </c>
       <c r="J4">
-        <v>1.046003400317087</v>
+        <v>1.043913835112835</v>
       </c>
       <c r="K4">
-        <v>1.052978470564403</v>
+        <v>1.050176553794237</v>
       </c>
       <c r="L4">
-        <v>1.039193327798818</v>
+        <v>1.03739567436649</v>
       </c>
       <c r="M4">
-        <v>1.055068727700207</v>
+        <v>1.052379892830514</v>
       </c>
       <c r="N4">
-        <v>1.018852837460553</v>
+        <v>1.018605453493395</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.048528817176224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.046556153707431</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025080977122159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028424597510573</v>
+        <v>1.026210602697437</v>
       </c>
       <c r="D5">
-        <v>1.044213523148007</v>
+        <v>1.041296690164582</v>
       </c>
       <c r="E5">
-        <v>1.030366804907003</v>
+        <v>1.028482930059587</v>
       </c>
       <c r="F5">
-        <v>1.046524426819065</v>
+        <v>1.043723795654171</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.058825336969083</v>
+        <v>1.057161054986039</v>
       </c>
       <c r="J5">
-        <v>1.046691827616247</v>
+        <v>1.04452907431439</v>
       </c>
       <c r="K5">
-        <v>1.053594106457493</v>
+        <v>1.050708232600106</v>
       </c>
       <c r="L5">
-        <v>1.039896269962704</v>
+        <v>1.03803303124361</v>
       </c>
       <c r="M5">
-        <v>1.055880632116713</v>
+        <v>1.053109562119239</v>
       </c>
       <c r="N5">
-        <v>1.019092281228669</v>
+        <v>1.018773927627671</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.048971199679502</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.046939888585779</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025197597736608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028623359330765</v>
+        <v>1.026396421914232</v>
       </c>
       <c r="D6">
-        <v>1.044360450779033</v>
+        <v>1.041428974248283</v>
       </c>
       <c r="E6">
-        <v>1.030528041301763</v>
+        <v>1.028632495660946</v>
       </c>
       <c r="F6">
-        <v>1.046704340691361</v>
+        <v>1.043889326772076</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.058893028331589</v>
+        <v>1.057219816913226</v>
       </c>
       <c r="J6">
-        <v>1.046812851755019</v>
+        <v>1.04463718967816</v>
       </c>
       <c r="K6">
-        <v>1.053703895328879</v>
+        <v>1.050803390559009</v>
       </c>
       <c r="L6">
-        <v>1.040019524877203</v>
+        <v>1.038144646716535</v>
       </c>
       <c r="M6">
-        <v>1.056023173998808</v>
+        <v>1.053237734515486</v>
       </c>
       <c r="N6">
-        <v>1.019135484108076</v>
+        <v>1.018804291705346</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.049057467476964</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.04701668605298</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025219303787231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027304218921892</v>
+        <v>1.025170603980222</v>
       </c>
       <c r="D7">
-        <v>1.043406621441349</v>
+        <v>1.040578540697817</v>
       </c>
       <c r="E7">
-        <v>1.029465585818776</v>
+        <v>1.027653937507982</v>
       </c>
       <c r="F7">
-        <v>1.045522106917955</v>
+        <v>1.04280915344359</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.058460792058795</v>
+        <v>1.056851055660933</v>
       </c>
       <c r="J7">
-        <v>1.046028515792982</v>
+        <v>1.043945782226461</v>
       </c>
       <c r="K7">
-        <v>1.053005104670145</v>
+        <v>1.050207850083921</v>
       </c>
       <c r="L7">
-        <v>1.039218046021311</v>
+        <v>1.037426784938375</v>
       </c>
       <c r="M7">
-        <v>1.055097665007766</v>
+        <v>1.052414131995405</v>
       </c>
       <c r="N7">
-        <v>1.01886460177344</v>
+        <v>1.018642786275776</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.048567526046868</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.046600170883585</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02509125705581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021670139354791</v>
+        <v>1.019918294563906</v>
       </c>
       <c r="D8">
-        <v>1.039334418588084</v>
+        <v>1.0369348007188</v>
       </c>
       <c r="E8">
-        <v>1.024937084384962</v>
+        <v>1.023467945144138</v>
       </c>
       <c r="F8">
-        <v>1.040482423221601</v>
+        <v>1.038191484375808</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.05659001470361</v>
+        <v>1.055241404950204</v>
       </c>
       <c r="J8">
-        <v>1.042667882046054</v>
+        <v>1.040964074634827</v>
       </c>
       <c r="K8">
-        <v>1.050006690341257</v>
+        <v>1.047636670938693</v>
       </c>
       <c r="L8">
-        <v>1.035789538111593</v>
+        <v>1.034339141186259</v>
       </c>
       <c r="M8">
-        <v>1.051140594783314</v>
+        <v>1.048877832594352</v>
       </c>
       <c r="N8">
-        <v>1.017700960947231</v>
+        <v>1.017884467684661</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.046451973910866</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.044787167658281</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024529132116845</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.011287534163946</v>
+        <v>1.010225675157364</v>
       </c>
       <c r="D9">
-        <v>1.031852854776342</v>
+        <v>1.030230736649731</v>
       </c>
       <c r="E9">
-        <v>1.016634541002099</v>
+        <v>1.015782082250674</v>
       </c>
       <c r="F9">
-        <v>1.031242148295142</v>
+        <v>1.029717797406056</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.053061605322591</v>
+        <v>1.052183088851824</v>
       </c>
       <c r="J9">
-        <v>1.036447901621182</v>
+        <v>1.035422435013451</v>
       </c>
       <c r="K9">
-        <v>1.04444944784361</v>
+        <v>1.042851668726158</v>
       </c>
       <c r="L9">
-        <v>1.029463378741103</v>
+        <v>1.02862419232604</v>
       </c>
       <c r="M9">
-        <v>1.043847893246843</v>
+        <v>1.042346446177086</v>
       </c>
       <c r="N9">
-        <v>1.01554173743625</v>
+        <v>1.016381799076006</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.04251954599551</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.041400484071443</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023457424239732</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.004053211939487</v>
+        <v>1.0035313469154</v>
       </c>
       <c r="D10">
-        <v>1.026668103771707</v>
+        <v>1.025631480329414</v>
       </c>
       <c r="E10">
-        <v>1.010885120669195</v>
+        <v>1.010515968741147</v>
       </c>
       <c r="F10">
-        <v>1.024843412264125</v>
+        <v>1.023902793222531</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.050558845637502</v>
+        <v>1.050036686086168</v>
       </c>
       <c r="J10">
-        <v>1.032106934327748</v>
+        <v>1.03160555394837</v>
       </c>
       <c r="K10">
-        <v>1.040571991841011</v>
+        <v>1.039552874448524</v>
       </c>
       <c r="L10">
-        <v>1.025060583350691</v>
+        <v>1.024697914928825</v>
       </c>
       <c r="M10">
-        <v>1.038778145518534</v>
+        <v>1.037853482448883</v>
       </c>
       <c r="N10">
-        <v>1.01403641427995</v>
+        <v>1.015463264109743</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.039794666897084</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.039086442912891</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022712962469633</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000860025607879</v>
+        <v>1.000651483453049</v>
       </c>
       <c r="D11">
-        <v>1.024394741878114</v>
+        <v>1.023673737878409</v>
       </c>
       <c r="E11">
-        <v>1.008359988533716</v>
+        <v>1.008274491323197</v>
       </c>
       <c r="F11">
-        <v>1.02203325429975</v>
+        <v>1.021413340766297</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.049450551379014</v>
+        <v>1.049125116266646</v>
       </c>
       <c r="J11">
-        <v>1.030197070224669</v>
+        <v>1.029997185044321</v>
       </c>
       <c r="K11">
-        <v>1.038870820165233</v>
+        <v>1.038162597841898</v>
       </c>
       <c r="L11">
-        <v>1.023125951222798</v>
+        <v>1.023042031883406</v>
       </c>
       <c r="M11">
-        <v>1.036551283340406</v>
+        <v>1.035942424023282</v>
       </c>
       <c r="N11">
-        <v>1.013379061910207</v>
+        <v>1.015266531196571</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.038624540613412</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038139359008738</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022408632181357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9996488181820795</v>
+        <v>0.9995672998562386</v>
       </c>
       <c r="D12">
-        <v>1.023528853162804</v>
+        <v>1.022933705662064</v>
       </c>
       <c r="E12">
-        <v>1.007401517098812</v>
+        <v>1.00743161152512</v>
       </c>
       <c r="F12">
-        <v>1.020966299930681</v>
+        <v>1.020474875317054</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.049024869901004</v>
+        <v>1.048778256965203</v>
       </c>
       <c r="J12">
-        <v>1.029468048093187</v>
+        <v>1.029389983625438</v>
       </c>
       <c r="K12">
-        <v>1.038218746333232</v>
+        <v>1.037634337829257</v>
       </c>
       <c r="L12">
-        <v>1.022388276358029</v>
+        <v>1.022417805256346</v>
       </c>
       <c r="M12">
-        <v>1.035702548390182</v>
+        <v>1.035220048011428</v>
       </c>
       <c r="N12">
-        <v>1.013125601748989</v>
+        <v>1.015207340019462</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.038163507324929</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.037765872669337</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022291900805528</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9999068322323407</v>
+        <v>0.9997980740817765</v>
       </c>
       <c r="D13">
-        <v>1.023712348252127</v>
+        <v>1.023090228257647</v>
       </c>
       <c r="E13">
-        <v>1.007605218087294</v>
+        <v>1.007610548846037</v>
       </c>
       <c r="F13">
-        <v>1.021193019470473</v>
+        <v>1.020674050025876</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.049114886376272</v>
+        <v>1.048851383888438</v>
       </c>
       <c r="J13">
-        <v>1.02962250014527</v>
+        <v>1.029518329925318</v>
       </c>
       <c r="K13">
-        <v>1.038356375616873</v>
+        <v>1.037745439013896</v>
       </c>
       <c r="L13">
-        <v>1.022544600758726</v>
+        <v>1.022549831728452</v>
       </c>
       <c r="M13">
-        <v>1.03588244434863</v>
+        <v>1.035372862772124</v>
       </c>
       <c r="N13">
-        <v>1.01317878919266</v>
+        <v>1.015218466471814</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.038258333007409</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.037841698326214</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022316077644652</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.000759156725789</v>
+        <v>1.000561103566951</v>
       </c>
       <c r="D14">
-        <v>1.024322220239053</v>
+        <v>1.02361161870047</v>
       </c>
       <c r="E14">
-        <v>1.008279963937196</v>
+        <v>1.008204021273738</v>
       </c>
       <c r="F14">
-        <v>1.021944155361032</v>
+        <v>1.021334857653749</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04941481925623</v>
+        <v>1.049095899831405</v>
       </c>
       <c r="J14">
-        <v>1.030135996929999</v>
+        <v>1.02994617931437</v>
       </c>
       <c r="K14">
-        <v>1.038815970431023</v>
+        <v>1.038117984731065</v>
       </c>
       <c r="L14">
-        <v>1.023064169800789</v>
+        <v>1.02298963078552</v>
       </c>
       <c r="M14">
-        <v>1.036480214550052</v>
+        <v>1.035881798248525</v>
       </c>
       <c r="N14">
-        <v>1.013357611202835</v>
+        <v>1.015260940474225</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.038584697392313</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038106650052565</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022398613263618</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.001287279840855</v>
+        <v>1.001034595456273</v>
       </c>
       <c r="D15">
-        <v>1.024702064077387</v>
+        <v>1.023937220851613</v>
       </c>
       <c r="E15">
-        <v>1.008699049350398</v>
+        <v>1.008573355125438</v>
       </c>
       <c r="F15">
-        <v>1.022410768631083</v>
+        <v>1.021746135515137</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.04960191652037</v>
+        <v>1.049249031526483</v>
       </c>
       <c r="J15">
-        <v>1.030455838967419</v>
+        <v>1.030213568515108</v>
       </c>
       <c r="K15">
-        <v>1.039103274471482</v>
+        <v>1.038351905472407</v>
       </c>
       <c r="L15">
-        <v>1.0233877313606</v>
+        <v>1.023264342083289</v>
       </c>
       <c r="M15">
-        <v>1.036852422900438</v>
+        <v>1.036199565319799</v>
       </c>
       <c r="N15">
-        <v>1.013469999441939</v>
+        <v>1.015291025143199</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.038793673260732</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.038278450575781</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02245120763397</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.004303935103837</v>
+        <v>1.003756570995237</v>
       </c>
       <c r="D16">
-        <v>1.026862496444415</v>
+        <v>1.025800830541935</v>
       </c>
       <c r="E16">
-        <v>1.011090500993524</v>
+        <v>1.010697674430168</v>
       </c>
       <c r="F16">
-        <v>1.025072876019002</v>
+        <v>1.024106659214011</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.050658344661677</v>
+        <v>1.050120386931362</v>
       </c>
       <c r="J16">
-        <v>1.032271584486326</v>
+        <v>1.031745622856583</v>
       </c>
       <c r="K16">
-        <v>1.040727801682573</v>
+        <v>1.039684004249757</v>
       </c>
       <c r="L16">
-        <v>1.025226260929597</v>
+        <v>1.024840310040918</v>
       </c>
       <c r="M16">
-        <v>1.038968329230241</v>
+        <v>1.038018445850984</v>
       </c>
       <c r="N16">
-        <v>1.014101724955005</v>
+        <v>1.015493751503434</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.039945406005706</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.039223721438843</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022747770275791</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.006173268415114</v>
+        <v>1.005458748214134</v>
       </c>
       <c r="D17">
-        <v>1.028203060238713</v>
+        <v>1.026969222388024</v>
       </c>
       <c r="E17">
-        <v>1.012574763501384</v>
+        <v>1.012031036840663</v>
       </c>
       <c r="F17">
-        <v>1.02672509460256</v>
+        <v>1.025585011151751</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.051310212242614</v>
+        <v>1.050665613113021</v>
       </c>
       <c r="J17">
-        <v>1.0333962667264</v>
+        <v>1.032708759014856</v>
       </c>
       <c r="K17">
-        <v>1.041734020526428</v>
+        <v>1.040520349028511</v>
       </c>
       <c r="L17">
-        <v>1.026365846285053</v>
+        <v>1.025831356298462</v>
       </c>
       <c r="M17">
-        <v>1.040280218752104</v>
+        <v>1.039158836181501</v>
       </c>
       <c r="N17">
-        <v>1.014493017512874</v>
+        <v>1.015658957942506</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.040659399433087</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.03981785274529</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022935175724707</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.007243186184411</v>
+        <v>1.006439727104099</v>
       </c>
       <c r="D18">
-        <v>1.028966163148927</v>
+        <v>1.027638760036107</v>
       </c>
       <c r="E18">
-        <v>1.013423048032332</v>
+        <v>1.012799447319532</v>
       </c>
       <c r="F18">
-        <v>1.027669037729281</v>
+        <v>1.02643498578679</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.051678412215101</v>
+        <v>1.050976256851722</v>
       </c>
       <c r="J18">
-        <v>1.034035320034865</v>
+        <v>1.033261637575125</v>
       </c>
       <c r="K18">
-        <v>1.042302957405251</v>
+        <v>1.040996877481665</v>
       </c>
       <c r="L18">
-        <v>1.027014036021363</v>
+        <v>1.026400843488655</v>
       </c>
       <c r="M18">
-        <v>1.041026668011247</v>
+        <v>1.039812501667436</v>
       </c>
       <c r="N18">
-        <v>1.014712778673125</v>
+        <v>1.01576585134151</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.04105008338259</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.040142060087463</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023040609638028</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.00761623314612</v>
+        <v>1.006782225914841</v>
       </c>
       <c r="D19">
-        <v>1.029236080530059</v>
+        <v>1.027876505054741</v>
       </c>
       <c r="E19">
-        <v>1.01372056169596</v>
+        <v>1.01306941936348</v>
       </c>
       <c r="F19">
-        <v>1.028000352389699</v>
+        <v>1.026734002906395</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.051809662009049</v>
+        <v>1.051087710070704</v>
       </c>
       <c r="J19">
-        <v>1.034261600223814</v>
+        <v>1.0334582906571</v>
       </c>
       <c r="K19">
-        <v>1.042506604033821</v>
+        <v>1.041168738512332</v>
       </c>
       <c r="L19">
-        <v>1.02724329340963</v>
+        <v>1.026602953017902</v>
       </c>
       <c r="M19">
-        <v>1.041290605182257</v>
+        <v>1.040044537069211</v>
       </c>
       <c r="N19">
-        <v>1.014792615664805</v>
+        <v>1.0158083946264</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.041200419067781</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.040270545269107</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023080113461283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.005972578123148</v>
+        <v>1.005275441206727</v>
       </c>
       <c r="D20">
-        <v>1.028058699859484</v>
+        <v>1.026842909361983</v>
       </c>
       <c r="E20">
-        <v>1.012415166654967</v>
+        <v>1.011887123285204</v>
       </c>
       <c r="F20">
-        <v>1.026547415266855</v>
+        <v>1.025425517948493</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.051240030802977</v>
+        <v>1.050606584149731</v>
       </c>
       <c r="J20">
-        <v>1.033275192597596</v>
+        <v>1.03260450725345</v>
       </c>
       <c r="K20">
-        <v>1.041625483758992</v>
+        <v>1.040429627795163</v>
       </c>
       <c r="L20">
-        <v>1.026243167573883</v>
+        <v>1.025724123514122</v>
       </c>
       <c r="M20">
-        <v>1.040138987899887</v>
+        <v>1.03903555321135</v>
       </c>
       <c r="N20">
-        <v>1.01445069293848</v>
+        <v>1.015639355882152</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.040581333928234</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.039752254065196</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022914662990649</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.000522015590835</v>
+        <v>1.000372887323031</v>
       </c>
       <c r="D21">
-        <v>1.024157602896522</v>
+        <v>1.023490216689351</v>
       </c>
       <c r="E21">
-        <v>1.008094491019384</v>
+        <v>1.008063931335925</v>
       </c>
       <c r="F21">
-        <v>1.021737909599517</v>
+        <v>1.021174063535816</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.049335514409013</v>
+        <v>1.049044989048675</v>
       </c>
       <c r="J21">
-        <v>1.029997927749068</v>
+        <v>1.029855026539814</v>
       </c>
       <c r="K21">
-        <v>1.038695313728325</v>
+        <v>1.038039819073554</v>
       </c>
       <c r="L21">
-        <v>1.022924116547227</v>
+        <v>1.02289412378746</v>
       </c>
       <c r="M21">
-        <v>1.036318830805147</v>
+        <v>1.035765092003629</v>
       </c>
       <c r="N21">
-        <v>1.013312379707284</v>
+        <v>1.015323154159996</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.038512840777973</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.038066149189331</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02238642339148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9970009051436657</v>
+        <v>0.9972082367774667</v>
       </c>
       <c r="D22">
-        <v>1.021637292993929</v>
+        <v>1.021325926499193</v>
       </c>
       <c r="E22">
-        <v>1.005308456332997</v>
+        <v>1.005602210722581</v>
       </c>
       <c r="F22">
-        <v>1.018636253194696</v>
+        <v>1.018435324796988</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.048090969654597</v>
+        <v>1.048022409011281</v>
       </c>
       <c r="J22">
-        <v>1.027873298119745</v>
+        <v>1.028071453967342</v>
       </c>
       <c r="K22">
-        <v>1.036791961300693</v>
+        <v>1.036486428999527</v>
       </c>
       <c r="L22">
-        <v>1.020775480107247</v>
+        <v>1.021063497705288</v>
       </c>
       <c r="M22">
-        <v>1.033847347154894</v>
+        <v>1.033650212141364</v>
       </c>
       <c r="N22">
-        <v>1.012570832978504</v>
+        <v>1.015104398953296</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.037153665995511</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.036953117062042</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.02203913153242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9988589002441256</v>
+        <v>0.9988625979210782</v>
       </c>
       <c r="D23">
-        <v>1.02296048610113</v>
+        <v>1.022449155712565</v>
       </c>
       <c r="E23">
-        <v>1.006775019876385</v>
+        <v>1.006882969769905</v>
       </c>
       <c r="F23">
-        <v>1.020268729145754</v>
+        <v>1.019863055550839</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.048743622366336</v>
+        <v>1.04854961687996</v>
       </c>
       <c r="J23">
-        <v>1.028988791603834</v>
+        <v>1.02899233056141</v>
       </c>
       <c r="K23">
-        <v>1.037787804768052</v>
+        <v>1.037285805496018</v>
       </c>
       <c r="L23">
-        <v>1.021903716469102</v>
+        <v>1.022009614330648</v>
       </c>
       <c r="M23">
-        <v>1.035145305629734</v>
+        <v>1.03474708503264</v>
       </c>
       <c r="N23">
-        <v>1.012956740596436</v>
+        <v>1.015170016821334</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.037848169461122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.037507765252045</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022213558773107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006037137586423</v>
+        <v>1.005335955743694</v>
       </c>
       <c r="D24">
-        <v>1.028095103995333</v>
+        <v>1.026874410492322</v>
       </c>
       <c r="E24">
-        <v>1.012462173229964</v>
+        <v>1.011930882610292</v>
       </c>
       <c r="F24">
-        <v>1.026599105890439</v>
+        <v>1.025472441368556</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.05125445732274</v>
+        <v>1.050618152889196</v>
       </c>
       <c r="J24">
-        <v>1.03330475719033</v>
+        <v>1.032630138431458</v>
       </c>
       <c r="K24">
-        <v>1.041646170304046</v>
+        <v>1.04044546442562</v>
       </c>
       <c r="L24">
-        <v>1.026273917409408</v>
+        <v>1.02575166876083</v>
       </c>
       <c r="M24">
-        <v>1.040174676105794</v>
+        <v>1.03906652664996</v>
       </c>
       <c r="N24">
-        <v>1.014455626872913</v>
+        <v>1.015638739513563</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.040568727075472</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.03973353957904</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022914536242339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.014052227008302</v>
+        <v>1.012790331886483</v>
       </c>
       <c r="D25">
-        <v>1.033851385359434</v>
+        <v>1.032010349275372</v>
       </c>
       <c r="E25">
-        <v>1.018843832641953</v>
+        <v>1.017811832005152</v>
       </c>
       <c r="F25">
-        <v>1.033701937161443</v>
+        <v>1.031960073996794</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.054018084491432</v>
+        <v>1.053006219711621</v>
       </c>
       <c r="J25">
-        <v>1.038115758738613</v>
+        <v>1.036894786370316</v>
       </c>
       <c r="K25">
-        <v>1.045945984659469</v>
+        <v>1.044131267633123</v>
       </c>
       <c r="L25">
-        <v>1.031156499208357</v>
+        <v>1.03013979440357</v>
       </c>
       <c r="M25">
-        <v>1.04579866851673</v>
+        <v>1.044081712746792</v>
       </c>
       <c r="N25">
-        <v>1.016126097196045</v>
+        <v>1.016753091592548</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.043606027673452</v>
+        <v>1.042336390325857</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023748537589532</v>
       </c>
     </row>
   </sheetData>
